--- a/aimms_model/energy_hub/results/RTP/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/RTP/results_costs.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
-  <si>
-    <t>Electric_boiler</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Gas_CHP</t>
   </si>
@@ -386,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>72799.921433088602</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8658.972530887735</v>
+        <v>84453.791263466919</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7761.6483296075512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,14 +437,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -455,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4.3568712817305615</v>
+        <v>13912.064985863608</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1654.7296506526934</v>
+        <v>8820.7293097398433</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>810.66104775902659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14160.972742735672</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,14 +498,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,7 +505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>230.11309228826909</v>
+        <v>14531.307619497124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1728.0300903459058</v>
+        <v>32044.611431009191</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2579.0463483507492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>34395.988641924261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,14 +559,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +566,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>234.46996356999963</v>
+        <v>101243.29403844933</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12041.732271886334</v>
+        <v>125319.13200421595</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11151.355725717327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>48556.961384659931</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,14 +620,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -670,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>22373.058532828614</v>
+        <v>195246.80175913486</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>22373.058532828614</v>
+        <v>195246.80175913486</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -714,10 +679,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>447.14322276481636</v>
+        <v>3829.1911649368767</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -743,10 +708,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>447.14322276481636</v>
+        <v>3829.1911649368767</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>12612.424068058446</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/RTP/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/RTP/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>72799.921433088602</v>
+        <v>363999.60716566676</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>84453.791263466919</v>
+        <v>422268.95631743094</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>13912.064985863608</v>
+        <v>69560.324929352966</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8820.7293097398433</v>
+        <v>44103.64654870941</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14160.972742735672</v>
+        <v>70804.863713678613</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>14531.307619497124</v>
+        <v>72656.538097485623</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>32044.611431009191</v>
+        <v>160223.05715504597</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34395.988641924261</v>
+        <v>171979.9432096213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>101243.29403844933</v>
+        <v>506216.47019250534</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>125319.13200421595</v>
+        <v>626595.66002118634</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>48556.961384659931</v>
+        <v>242784.80692329991</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>195246.80175913486</v>
+        <v>976234.00892069319</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>195246.80175913486</v>
+        <v>976234.00892069319</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3829.1911649368767</v>
+        <v>19145.95582468437</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3829.1911649368767</v>
+        <v>19145.95582468437</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>12612.424068058446</v>
+        <v>63062.120338610657</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/RTP/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/RTP/results_costs.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>363999.60716566676</v>
+        <v>439413.07014370541</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>422268.95631743094</v>
+        <v>383364.788093952</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>69560.324929352966</v>
+        <v>83971.837704460238</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44103.64654870941</v>
+        <v>40040.322312034514</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>70804.863713678613</v>
+        <v>66960.361929149847</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>72656.538097485623</v>
+        <v>84484.346624983271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>160223.05715504597</v>
+        <v>143330.27592117561</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>171979.9432096213</v>
+        <v>162641.92370228644</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>506216.47019250534</v>
+        <v>607869.25447314885</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>626595.66002118634</v>
+        <v>566735.38632716215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>242784.80692329991</v>
+        <v>229602.28563143627</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>976234.00892069319</v>
+        <v>930282.28818032239</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>976234.00892069319</v>
+        <v>930282.28818032239</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>19145.95582468437</v>
+        <v>27873.041618610343</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>19145.95582468437</v>
+        <v>27873.041618610343</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>63062.120338610657</v>
+        <v>59693.635673242439</v>
       </c>
     </row>
   </sheetData>
